--- a/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ETLearning\ET-EUI\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF555C27-C107-4067-9C82-8CE8C2776FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E1B1B-A455-4201-A6B2-EA0C16A8FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1515" windowWidth="22275" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,23 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>程序名</t>
+  </si>
+  <si>
+    <t>AppName</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -420,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E7"/>
+  <dimension ref="C3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -434,7 +451,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -444,8 +461,11 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -455,8 +475,11 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -466,8 +489,11 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -477,8 +503,11 @@
       <c r="E6" s="5">
         <v>20001</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -487,6 +516,121 @@
       </c>
       <c r="E7" s="5">
         <v>20002</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20005</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20006</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20007</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20008</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20009</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20010</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
